--- a/data/trans_orig/IQ2608_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IQ2608_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7FD98E8-5B45-4F8C-B4BA-CEE84DCACEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{890F6E0C-ED86-4418-99C1-8F7F5B4B7087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D384F392-4A82-4814-B145-1F0DDCC40618}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D32461DC-9805-4E36-BABD-1C649852CE00}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,414 +65,897 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>6,42%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
     <t>1,05%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
     <t>11,44%</t>
   </si>
   <si>
@@ -500,487 +983,220 @@
     <t>16,36%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
   <si>
     <t>2,34%</t>
@@ -1002,222 +1218,6 @@
   </si>
   <si>
     <t>7,21%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
   </si>
 </sst>
 </file>
@@ -1609,7 +1609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4925EDB-C17A-4F82-8AAA-0EB40AB1D4CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2134000-FD1B-4D90-BFCE-D04E5494208B}">
   <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1724,13 +1724,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>1071</v>
+        <v>4791</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -1742,40 +1742,40 @@
         <v>12</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>984</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>1071</v>
+        <v>5774</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1784,13 +1784,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1799,13 +1799,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1814,19 +1814,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1835,13 +1835,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1850,13 +1850,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1865,19 +1865,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1901,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1916,31 +1916,31 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>764</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>20</v>
@@ -1949,31 +1949,31 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>778</v>
+        <v>643</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>1542</v>
+        <v>643</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,304 +1982,304 @@
         <v>5</v>
       </c>
       <c r="C9" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>4078</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1409</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="7">
-        <v>6</v>
-      </c>
-      <c r="I9" s="7">
-        <v>4777</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>2</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1409</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="P9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="M9" s="7">
-        <v>12</v>
-      </c>
-      <c r="N9" s="7">
-        <v>8855</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>6459</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>4245</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M10" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>10704</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>13796</v>
+        <v>765</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H11" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>9745</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>23541</v>
+        <v>765</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="D12" s="7">
-        <v>15882</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="7">
-        <v>11</v>
-      </c>
-      <c r="I12" s="7">
-        <v>7348</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="7">
-        <v>33</v>
-      </c>
-      <c r="N12" s="7">
-        <v>23230</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>4678</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>2593</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>7271</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C14" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>14695</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="H14" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>10782</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>25477</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,306 +2288,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D15" s="7">
-        <v>61424</v>
+        <v>5556</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="I15" s="7">
-        <v>40268</v>
+        <v>3036</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="N15" s="7">
-        <v>101692</v>
+        <v>8592</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>1295</v>
+        <v>8530</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I16" s="7">
-        <v>1760</v>
+        <v>7394</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="N16" s="7">
-        <v>3055</v>
+        <v>15923</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>3005</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1899</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>4905</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>5544</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>4707</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>10250</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3938</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="7">
         <v>3</v>
       </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>2209</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>6146</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>1903</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>3559</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>5461</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2602,13 @@
         <v>3788</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -2617,13 +2617,13 @@
         <v>3262</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -2635,265 +2635,265 @@
         <v>87</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>1903</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="H22" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>3559</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="M22" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>5461</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>3938</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>2209</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="M23" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>6146</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C24" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>5544</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="H24" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>4707</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="M24" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>10250</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C25" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>3005</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>1899</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>4905</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>8530</v>
+        <v>1295</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="H26" s="7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>7394</v>
+        <v>1760</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="M26" s="7">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="N26" s="7">
-        <v>15923</v>
+        <v>3055</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2908,13 @@
         <v>28003</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>45</v>
@@ -2923,13 +2923,13 @@
         <v>24788</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>86</v>
@@ -2938,270 +2938,270 @@
         <v>52790</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="B28" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D28" s="7">
-        <v>5392</v>
+        <v>14695</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="H28" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I28" s="7">
-        <v>3427</v>
+        <v>10782</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="M28" s="7">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="N28" s="7">
-        <v>8819</v>
+        <v>25477</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>4678</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I29" s="7">
-        <v>1625</v>
+        <v>2593</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N29" s="7">
-        <v>1625</v>
+        <v>7271</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C30" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D30" s="7">
-        <v>852</v>
+        <v>15882</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="7">
         <v>11</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>7348</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="M30" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="N30" s="7">
-        <v>852</v>
+        <v>23230</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>13796</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" s="7">
         <v>13</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
       <c r="I31" s="7">
-        <v>541</v>
+        <v>9745</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="N31" s="7">
-        <v>541</v>
+        <v>23541</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C32" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D32" s="7">
-        <v>1483</v>
+        <v>6459</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I32" s="7">
-        <v>830</v>
+        <v>4245</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="M32" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N32" s="7">
-        <v>2313</v>
+        <v>10704</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3213,301 +3213,301 @@
         <v>6</v>
       </c>
       <c r="D33" s="7">
-        <v>4820</v>
+        <v>4078</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="H33" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I33" s="7">
-        <v>5676</v>
+        <v>4777</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="M33" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N33" s="7">
-        <v>10496</v>
+        <v>8855</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C34" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>5242</v>
+        <v>764</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="H34" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I34" s="7">
-        <v>5170</v>
+        <v>778</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="M34" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N34" s="7">
-        <v>10412</v>
+        <v>1542</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C35" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>8016</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="H35" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>7353</v>
+        <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="M35" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>15369</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C36" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>5564</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="H36" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>10501</v>
+        <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="M36" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>16065</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C37" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>2555</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="H37" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="M37" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>3216</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C38" s="7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D38" s="7">
-        <v>13212</v>
+        <v>1071</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="H38" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>10863</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="M38" s="7">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="N38" s="7">
-        <v>24075</v>
+        <v>1071</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,123 +3516,123 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D39" s="7">
-        <v>47135</v>
+        <v>61424</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I39" s="7">
-        <v>46647</v>
+        <v>40268</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="N39" s="7">
-        <v>93782</v>
+        <v>101692</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="B40" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D40" s="7">
-        <v>0</v>
+        <v>7768</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>223</v>
+        <v>43</v>
       </c>
       <c r="H40" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I40" s="7">
-        <v>0</v>
+        <v>8882</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="M40" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="N40" s="7">
-        <v>0</v>
+        <v>16650</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5">
+        <v>9</v>
+      </c>
+      <c r="C41" s="7">
         <v>1</v>
       </c>
-      <c r="C41" s="7">
-        <v>0</v>
-      </c>
       <c r="D41" s="7">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3641,181 +3641,181 @@
         <v>0</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="M41" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="7">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C42" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D42" s="7">
-        <v>0</v>
+        <v>7825</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H42" s="7">
+        <v>3</v>
+      </c>
+      <c r="I42" s="7">
+        <v>3569</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" s="7">
         <v>13</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M42" s="7">
-        <v>0</v>
-      </c>
       <c r="N42" s="7">
-        <v>0</v>
+        <v>11394</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C43" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D43" s="7">
-        <v>765</v>
+        <v>6334</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="H43" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I43" s="7">
-        <v>0</v>
+        <v>4021</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="M43" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N43" s="7">
-        <v>765</v>
+        <v>10354</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>228</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5">
+        <v>6</v>
+      </c>
+      <c r="C44" s="7">
+        <v>15</v>
+      </c>
+      <c r="D44" s="7">
+        <v>10296</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H44" s="7">
         <v>4</v>
       </c>
-      <c r="C44" s="7">
-        <v>0</v>
-      </c>
-      <c r="D44" s="7">
-        <v>0</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
       <c r="I44" s="7">
-        <v>0</v>
+        <v>2665</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="M44" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N44" s="7">
-        <v>0</v>
+        <v>12960</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,55 +3824,55 @@
         <v>5</v>
       </c>
       <c r="C45" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D45" s="7">
-        <v>0</v>
+        <v>7614</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="H45" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I45" s="7">
-        <v>1409</v>
+        <v>3183</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="M45" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N45" s="7">
-        <v>1409</v>
+        <v>10797</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C46" s="7">
         <v>0</v>
@@ -3881,100 +3881,100 @@
         <v>0</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
       </c>
       <c r="I46" s="7">
-        <v>643</v>
+        <v>756</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
       </c>
       <c r="N46" s="7">
-        <v>643</v>
+        <v>756</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C47" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="7">
-        <v>0</v>
+        <v>893</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G47" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H47" s="7">
+        <v>2</v>
+      </c>
+      <c r="I47" s="7">
+        <v>1575</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M47" s="7">
+        <v>3</v>
+      </c>
+      <c r="N47" s="7">
+        <v>2469</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H47" s="7">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7">
-        <v>0</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="M47" s="7">
-        <v>0</v>
-      </c>
-      <c r="N47" s="7">
-        <v>0</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C48" s="7">
         <v>0</v>
@@ -3983,49 +3983,49 @@
         <v>0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="H48" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" s="7">
-        <v>0</v>
+        <v>1665</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M48" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N48" s="7">
-        <v>0</v>
+        <v>1665</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C49" s="7">
         <v>0</v>
@@ -4034,13 +4034,13 @@
         <v>0</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4049,13 +4049,13 @@
         <v>0</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -4064,64 +4064,64 @@
         <v>0</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C50" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D50" s="7">
-        <v>4791</v>
+        <v>734</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H50" s="7">
+        <v>4</v>
+      </c>
+      <c r="I50" s="7">
+        <v>2716</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M50" s="7">
+        <v>5</v>
+      </c>
+      <c r="N50" s="7">
+        <v>3450</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H50" s="7">
-        <v>2</v>
-      </c>
-      <c r="I50" s="7">
-        <v>984</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="M50" s="7">
-        <v>8</v>
-      </c>
-      <c r="N50" s="7">
-        <v>5774</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,150 +4130,150 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D51" s="7">
-        <v>5556</v>
+        <v>41852</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="H51" s="7">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="I51" s="7">
-        <v>3036</v>
+        <v>29032</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="M51" s="7">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="N51" s="7">
-        <v>8592</v>
+        <v>70883</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B52" s="5">
+        <v>10</v>
+      </c>
+      <c r="C52" s="7">
+        <v>18</v>
+      </c>
+      <c r="D52" s="7">
+        <v>13212</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H52" s="7">
+        <v>16</v>
+      </c>
+      <c r="I52" s="7">
+        <v>10863</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B52" s="5">
-        <v>0</v>
-      </c>
-      <c r="C52" s="7">
-        <v>1</v>
-      </c>
-      <c r="D52" s="7">
-        <v>734</v>
-      </c>
-      <c r="E52" s="7" t="s">
+      <c r="M52" s="7">
+        <v>34</v>
+      </c>
+      <c r="N52" s="7">
+        <v>24075</v>
+      </c>
+      <c r="O52" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="7" t="s">
+      <c r="P52" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H52" s="7">
-        <v>4</v>
-      </c>
-      <c r="I52" s="7">
-        <v>2716</v>
-      </c>
-      <c r="J52" s="7" t="s">
+      <c r="Q52" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M52" s="7">
-        <v>5</v>
-      </c>
-      <c r="N52" s="7">
-        <v>3450</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5">
+        <v>9</v>
+      </c>
+      <c r="C53" s="7">
+        <v>3</v>
+      </c>
+      <c r="D53" s="7">
+        <v>2555</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H53" s="7">
         <v>1</v>
       </c>
-      <c r="C53" s="7">
-        <v>0</v>
-      </c>
-      <c r="D53" s="7">
-        <v>0</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="7" t="s">
+      <c r="I53" s="7">
+        <v>661</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M53" s="7">
+        <v>4</v>
+      </c>
+      <c r="N53" s="7">
+        <v>3216</v>
+      </c>
+      <c r="O53" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L53" s="7" t="s">
+      <c r="P53" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="M53" s="7">
-        <v>0</v>
-      </c>
-      <c r="N53" s="7">
-        <v>0</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="Q53" s="7" t="s">
         <v>255</v>
@@ -4282,154 +4282,154 @@
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C54" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D54" s="7">
-        <v>0</v>
+        <v>5564</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H54" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I54" s="7">
-        <v>1665</v>
+        <v>10501</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>256</v>
+        <v>88</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M54" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="N54" s="7">
-        <v>1665</v>
+        <v>16065</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C55" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D55" s="7">
-        <v>893</v>
+        <v>8016</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F55" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H55" s="7">
         <v>11</v>
       </c>
-      <c r="G55" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H55" s="7">
-        <v>2</v>
-      </c>
       <c r="I55" s="7">
-        <v>1575</v>
+        <v>7353</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>11</v>
+        <v>267</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M55" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="N55" s="7">
-        <v>2469</v>
+        <v>15369</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>155</v>
+        <v>269</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C56" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D56" s="7">
-        <v>0</v>
+        <v>5242</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>11</v>
+        <v>272</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>13</v>
+        <v>273</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="H56" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I56" s="7">
-        <v>756</v>
+        <v>5170</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="M56" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N56" s="7">
-        <v>756</v>
+        <v>10412</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,199 +4438,199 @@
         <v>5</v>
       </c>
       <c r="C57" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D57" s="7">
-        <v>7614</v>
+        <v>4820</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="H57" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I57" s="7">
-        <v>3183</v>
+        <v>5676</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>275</v>
+        <v>68</v>
       </c>
       <c r="M57" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N57" s="7">
-        <v>10797</v>
+        <v>10496</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C58" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D58" s="7">
-        <v>10296</v>
+        <v>1483</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="H58" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I58" s="7">
-        <v>2665</v>
+        <v>830</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>283</v>
+        <v>14</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M58" s="7">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="N58" s="7">
-        <v>12960</v>
+        <v>2313</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C59" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D59" s="7">
-        <v>6334</v>
+        <v>0</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>288</v>
+        <v>14</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>289</v>
+        <v>19</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H59" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I59" s="7">
-        <v>4021</v>
+        <v>541</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>292</v>
+        <v>14</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M59" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N59" s="7">
-        <v>10354</v>
+        <v>541</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>113</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C60" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D60" s="7">
-        <v>7825</v>
+        <v>852</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>297</v>
+        <v>14</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H60" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>3569</v>
+        <v>0</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>299</v>
+        <v>14</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="M60" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N60" s="7">
-        <v>11394</v>
+        <v>852</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>301</v>
+        <v>14</v>
       </c>
       <c r="Q60" s="7" t="s">
         <v>302</v>
@@ -4639,79 +4639,79 @@
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C61" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="7">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="E61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H61" s="7">
+        <v>2</v>
+      </c>
+      <c r="I61" s="7">
+        <v>1625</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="7" t="s">
+      <c r="M61" s="7">
+        <v>2</v>
+      </c>
+      <c r="N61" s="7">
+        <v>1625</v>
+      </c>
+      <c r="O61" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="H61" s="7">
-        <v>0</v>
-      </c>
-      <c r="I61" s="7">
-        <v>0</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M61" s="7">
-        <v>1</v>
-      </c>
-      <c r="N61" s="7">
-        <v>388</v>
-      </c>
-      <c r="O61" s="7" t="s">
+      <c r="P61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q61" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C62" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D62" s="7">
-        <v>7768</v>
+        <v>5392</v>
       </c>
       <c r="E62" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="G62" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G62" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="H62" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I62" s="7">
-        <v>8882</v>
+        <v>3427</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>309</v>
@@ -4723,10 +4723,10 @@
         <v>311</v>
       </c>
       <c r="M62" s="7">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="N62" s="7">
-        <v>16650</v>
+        <v>8819</v>
       </c>
       <c r="O62" s="7" t="s">
         <v>312</v>
@@ -4744,49 +4744,49 @@
         <v>3</v>
       </c>
       <c r="C63" s="7">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D63" s="7">
-        <v>41852</v>
+        <v>47135</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="H63" s="7">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="I63" s="7">
-        <v>29032</v>
+        <v>46647</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="M63" s="7">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="N63" s="7">
-        <v>70883</v>
+        <v>93782</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,256 +4794,256 @@
         <v>3</v>
       </c>
       <c r="B64" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C64" s="7">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="D64" s="7">
-        <v>8492</v>
+        <v>48996</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H64" s="7">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I64" s="7">
-        <v>7902</v>
+        <v>38904</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M64" s="7">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="N64" s="7">
-        <v>16394</v>
+        <v>87900</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C65" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D65" s="7">
-        <v>0</v>
+        <v>10626</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>11</v>
+        <v>324</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H65" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I65" s="7">
-        <v>1625</v>
+        <v>5154</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>11</v>
+        <v>327</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>88</v>
+        <v>328</v>
       </c>
       <c r="M65" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="N65" s="7">
-        <v>1625</v>
+        <v>15779</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>324</v>
+        <v>176</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>11</v>
+        <v>329</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>23</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C66" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D66" s="7">
-        <v>852</v>
+        <v>34815</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>11</v>
+        <v>332</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="H66" s="7">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="I66" s="7">
-        <v>1665</v>
+        <v>26124</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>164</v>
+        <v>333</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>11</v>
+        <v>334</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M66" s="7">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="N66" s="7">
-        <v>2517</v>
+        <v>60939</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C67" s="7">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D67" s="7">
-        <v>1659</v>
+        <v>32083</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>11</v>
+        <v>340</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="H67" s="7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="I67" s="7">
-        <v>2117</v>
+        <v>23327</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>333</v>
+        <v>104</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="M67" s="7">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="N67" s="7">
-        <v>3775</v>
+        <v>55410</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C68" s="7">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D68" s="7">
-        <v>2247</v>
+        <v>23899</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="H68" s="7">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="I68" s="7">
-        <v>2364</v>
+        <v>16282</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>342</v>
+        <v>261</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>38</v>
+        <v>350</v>
       </c>
       <c r="M68" s="7">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="N68" s="7">
-        <v>4611</v>
+        <v>40181</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5058,13 @@
         <v>20300</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="H69" s="7">
         <v>28</v>
@@ -5073,13 +5073,13 @@
         <v>18307</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="M69" s="7">
         <v>55</v>
@@ -5088,265 +5088,265 @@
         <v>38607</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="5">
+        <v>4</v>
+      </c>
+      <c r="C70" s="7">
+        <v>3</v>
+      </c>
+      <c r="D70" s="7">
+        <v>2247</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H70" s="7">
+        <v>3</v>
+      </c>
+      <c r="I70" s="7">
+        <v>2364</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M70" s="7">
         <v>6</v>
       </c>
-      <c r="C70" s="7">
-        <v>33</v>
-      </c>
-      <c r="D70" s="7">
-        <v>23899</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="H70" s="7">
-        <v>28</v>
-      </c>
-      <c r="I70" s="7">
-        <v>16282</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="M70" s="7">
-        <v>61</v>
-      </c>
       <c r="N70" s="7">
-        <v>40181</v>
+        <v>4611</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C71" s="7">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D71" s="7">
-        <v>32083</v>
+        <v>1659</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>363</v>
+        <v>14</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="H71" s="7">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="I71" s="7">
-        <v>23327</v>
+        <v>2117</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>74</v>
+        <v>372</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="M71" s="7">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="N71" s="7">
-        <v>55410</v>
+        <v>3775</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C72" s="7">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D72" s="7">
-        <v>34815</v>
+        <v>852</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>371</v>
+        <v>14</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>197</v>
+        <v>379</v>
       </c>
       <c r="H72" s="7">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="I72" s="7">
-        <v>26124</v>
+        <v>1665</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>373</v>
+        <v>14</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M72" s="7">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="N72" s="7">
-        <v>60939</v>
+        <v>2517</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C73" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D73" s="7">
-        <v>10626</v>
+        <v>0</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>378</v>
+        <v>14</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H73" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I73" s="7">
-        <v>5154</v>
+        <v>1625</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>381</v>
+        <v>14</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>382</v>
+        <v>89</v>
       </c>
       <c r="M73" s="7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="N73" s="7">
-        <v>15779</v>
+        <v>1625</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>304</v>
+        <v>386</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>383</v>
+        <v>14</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>384</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C74" s="7">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D74" s="7">
-        <v>48996</v>
+        <v>8492</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>385</v>
+        <v>92</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H74" s="7">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I74" s="7">
-        <v>38904</v>
+        <v>7902</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M74" s="7">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="N74" s="7">
-        <v>87900</v>
+        <v>16394</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>392</v>
+        <v>213</v>
       </c>
       <c r="Q74" s="7" t="s">
         <v>393</v>
@@ -5364,13 +5364,13 @@
         <v>183970</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="H75" s="7">
         <v>224</v>
@@ -5379,13 +5379,13 @@
         <v>143770</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="M75" s="7">
         <v>478</v>
@@ -5394,13 +5394,13 @@
         <v>327739</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IQ2608_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IQ2608_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{890F6E0C-ED86-4418-99C1-8F7F5B4B7087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4174EAFC-571C-4175-8002-D54F1C7BABCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D32461DC-9805-4E36-BABD-1C649852CE00}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A2299E28-117E-4E4C-A8C5-40E48B2DAEB3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="388">
   <si>
     <t>Menores según si utilizan camiseta, gorra, gafas de sol o sombrero para protegerse del sol / solo 2023 en 2023 (Tasa respuesta: 24,9%)</t>
   </si>
@@ -152,1006 +152,982 @@
     <t>30,46%</t>
   </si>
   <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
   </si>
   <si>
     <t>29,83%</t>
   </si>
   <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
   </si>
   <si>
     <t>10,73%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
   </si>
   <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
   </si>
   <si>
     <t>18,99%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
   </si>
   <si>
     <t>14,06%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
   </si>
   <si>
     <t>11,64%</t>
   </si>
   <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>3,27%</t>
+    <t>3,04%</t>
   </si>
   <si>
     <t>1,47%</t>
@@ -1160,25 +1136,25 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>4,21%</t>
+    <t>3,96%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>0,77%</t>
@@ -1187,37 +1163,43 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
     <t>0,75%</t>
   </si>
   <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>7,21%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1210,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1324,39 +1306,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1408,7 +1390,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1519,13 +1501,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1534,6 +1509,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1598,19 +1580,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2134000-FD1B-4D90-BFCE-D04E5494208B}">
-  <dimension ref="A1:Q75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1305C3B8-29A8-41FA-9AE2-E1ECBBF92776}">
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2536,7 +2538,7 @@
         <v>70</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,13 +2553,13 @@
         <v>1903</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -2566,13 +2568,13 @@
         <v>3559</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -2581,13 +2583,13 @@
         <v>5461</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2604,13 @@
         <v>3788</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -2617,13 +2619,13 @@
         <v>3262</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -2632,10 +2634,10 @@
         <v>7050</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>88</v>
@@ -2893,7 +2895,7 @@
         <v>98</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,7 +2951,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -2961,13 +2963,13 @@
         <v>14695</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -2976,13 +2978,13 @@
         <v>10782</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M28" s="7">
         <v>41</v>
@@ -2991,13 +2993,13 @@
         <v>25477</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +3014,13 @@
         <v>4678</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -3027,13 +3029,13 @@
         <v>2593</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -3042,13 +3044,13 @@
         <v>7271</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3065,13 @@
         <v>15882</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -3078,13 +3080,13 @@
         <v>7348</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M30" s="7">
         <v>33</v>
@@ -3093,13 +3095,13 @@
         <v>23230</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3116,13 @@
         <v>13796</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -3129,13 +3131,13 @@
         <v>9745</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M31" s="7">
         <v>29</v>
@@ -3144,13 +3146,13 @@
         <v>23541</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,13 +3167,13 @@
         <v>6459</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -3180,13 +3182,13 @@
         <v>4245</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
@@ -3195,13 +3197,13 @@
         <v>10704</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,13 +3233,13 @@
         <v>4777</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M33" s="7">
         <v>12</v>
@@ -3246,13 +3248,13 @@
         <v>8855</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3269,13 @@
         <v>764</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3282,13 +3284,13 @@
         <v>778</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -3297,13 +3299,13 @@
         <v>1542</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,37 +3326,37 @@
         <v>19</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M35" s="7">
-        <v>0</v>
-      </c>
-      <c r="N35" s="7">
-        <v>0</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,37 +3377,37 @@
         <v>19</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,37 +3428,37 @@
         <v>19</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3473,13 @@
         <v>1071</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3492,7 +3494,7 @@
         <v>19</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -3501,13 +3503,13 @@
         <v>1071</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,7 +3565,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B40" s="5">
         <v>10</v>
@@ -3575,13 +3577,13 @@
         <v>7768</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="H40" s="7">
         <v>15</v>
@@ -3590,13 +3592,13 @@
         <v>8882</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M40" s="7">
         <v>27</v>
@@ -3605,13 +3607,13 @@
         <v>16650</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,28 +3628,28 @@
         <v>388</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -3656,13 +3658,13 @@
         <v>388</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3679,13 @@
         <v>7825</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -3692,13 +3694,13 @@
         <v>3569</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M42" s="7">
         <v>13</v>
@@ -3731,10 +3733,10 @@
         <v>187</v>
       </c>
       <c r="F43" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H43" s="7">
         <v>7</v>
@@ -3743,13 +3745,13 @@
         <v>4021</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M43" s="7">
         <v>16</v>
@@ -3758,13 +3760,13 @@
         <v>10354</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,10 +3850,10 @@
         <v>207</v>
       </c>
       <c r="K45" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M45" s="7">
         <v>15</v>
@@ -3860,13 +3862,13 @@
         <v>10797</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="Q45" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,7 +3889,7 @@
         <v>19</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -3896,13 +3898,13 @@
         <v>756</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3911,13 +3913,13 @@
         <v>756</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,13 +3934,13 @@
         <v>893</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -3947,13 +3949,13 @@
         <v>1575</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M47" s="7">
         <v>3</v>
@@ -3962,13 +3964,13 @@
         <v>2469</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,7 +3991,7 @@
         <v>19</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H48" s="7">
         <v>2</v>
@@ -3998,13 +4000,13 @@
         <v>1665</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M48" s="7">
         <v>2</v>
@@ -4013,13 +4015,13 @@
         <v>1665</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,7 +4042,7 @@
         <v>19</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4055,7 +4057,7 @@
         <v>19</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -4070,7 +4072,7 @@
         <v>19</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4087,13 @@
         <v>734</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -4100,13 +4102,13 @@
         <v>2716</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M50" s="7">
         <v>5</v>
@@ -4115,13 +4117,13 @@
         <v>3450</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,7 +4179,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B52" s="5">
         <v>10</v>
@@ -4189,13 +4191,13 @@
         <v>13212</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H52" s="7">
         <v>16</v>
@@ -4204,13 +4206,13 @@
         <v>10863</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="L52" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M52" s="7">
         <v>34</v>
@@ -4219,13 +4221,13 @@
         <v>24075</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P52" s="7" t="s">
+      <c r="Q52" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4242,13 @@
         <v>2555</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
@@ -4255,13 +4257,13 @@
         <v>661</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M53" s="7">
         <v>4</v>
@@ -4270,13 +4272,13 @@
         <v>3216</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,28 +4293,28 @@
         <v>5564</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H54" s="7">
         <v>15</v>
       </c>
       <c r="I54" s="7">
-        <v>10501</v>
+        <v>10500</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>88</v>
+        <v>256</v>
       </c>
       <c r="K54" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M54" s="7">
         <v>24</v>
@@ -4321,13 +4323,13 @@
         <v>16065</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4344,13 @@
         <v>8016</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H55" s="7">
         <v>11</v>
@@ -4357,13 +4359,13 @@
         <v>7353</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M55" s="7">
         <v>23</v>
@@ -4372,13 +4374,13 @@
         <v>15369</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,13 +4395,13 @@
         <v>5242</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H56" s="7">
         <v>9</v>
@@ -4408,13 +4410,13 @@
         <v>5170</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M56" s="7">
         <v>16</v>
@@ -4423,13 +4425,13 @@
         <v>10412</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4446,13 @@
         <v>4820</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H57" s="7">
         <v>8</v>
@@ -4459,13 +4461,13 @@
         <v>5676</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>68</v>
+        <v>283</v>
       </c>
       <c r="M57" s="7">
         <v>14</v>
@@ -4474,10 +4476,10 @@
         <v>10496</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P57" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="Q57" s="7" t="s">
         <v>286</v>
@@ -4525,13 +4527,13 @@
         <v>2313</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P58" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P58" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="Q58" s="7" t="s">
-        <v>293</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,7 +4554,7 @@
         <v>19</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
@@ -4561,13 +4563,13 @@
         <v>541</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M59" s="7">
         <v>1</v>
@@ -4576,13 +4578,13 @@
         <v>541</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,28 +4599,28 @@
         <v>852</v>
       </c>
       <c r="E60" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H60" s="7">
-        <v>0</v>
-      </c>
-      <c r="I60" s="7">
-        <v>0</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M60" s="7">
         <v>1</v>
@@ -4627,13 +4629,13 @@
         <v>852</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,7 +4656,7 @@
         <v>19</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H61" s="7">
         <v>2</v>
@@ -4663,13 +4665,13 @@
         <v>1625</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M61" s="7">
         <v>2</v>
@@ -4678,13 +4680,13 @@
         <v>1625</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,13 +4701,13 @@
         <v>5392</v>
       </c>
       <c r="E62" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H62" s="7">
         <v>5</v>
@@ -4714,13 +4716,13 @@
         <v>3427</v>
       </c>
       <c r="J62" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L62" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M62" s="7">
         <v>11</v>
@@ -4729,13 +4731,13 @@
         <v>8819</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>312</v>
+        <v>185</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,7 +4764,7 @@
         <v>69</v>
       </c>
       <c r="I63" s="7">
-        <v>46647</v>
+        <v>46646</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>35</v>
@@ -4803,13 +4805,13 @@
         <v>48996</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H64" s="7">
         <v>65</v>
@@ -4818,13 +4820,13 @@
         <v>38904</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M64" s="7">
         <v>136</v>
@@ -4833,13 +4835,13 @@
         <v>87900</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>323</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,13 +4856,13 @@
         <v>10626</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>47</v>
+        <v>321</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="H65" s="7">
         <v>8</v>
@@ -4869,13 +4871,13 @@
         <v>5154</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>327</v>
+        <v>50</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>328</v>
+        <v>116</v>
       </c>
       <c r="M65" s="7">
         <v>22</v>
@@ -4884,13 +4886,13 @@
         <v>15779</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>329</v>
+        <v>47</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,13 +4907,13 @@
         <v>34815</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>332</v>
+        <v>74</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="H66" s="7">
         <v>39</v>
@@ -4920,13 +4922,13 @@
         <v>26124</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="M66" s="7">
         <v>88</v>
@@ -4935,13 +4937,13 @@
         <v>60939</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,13 +4958,13 @@
         <v>32083</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="H67" s="7">
         <v>34</v>
@@ -4971,13 +4973,13 @@
         <v>23327</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="M67" s="7">
         <v>77</v>
@@ -4986,13 +4988,13 @@
         <v>55410</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +5009,13 @@
         <v>23899</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H68" s="7">
         <v>28</v>
@@ -5022,13 +5024,13 @@
         <v>16282</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M68" s="7">
         <v>61</v>
@@ -5037,13 +5039,13 @@
         <v>40181</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5060,13 @@
         <v>20300</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>356</v>
+        <v>264</v>
       </c>
       <c r="H69" s="7">
         <v>28</v>
@@ -5073,13 +5075,13 @@
         <v>18307</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>359</v>
+        <v>204</v>
       </c>
       <c r="M69" s="7">
         <v>55</v>
@@ -5088,13 +5090,13 @@
         <v>38607</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>264</v>
+        <v>33</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5111,13 @@
         <v>2247</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>364</v>
+        <v>221</v>
       </c>
       <c r="H70" s="7">
         <v>3</v>
@@ -5124,13 +5126,13 @@
         <v>2364</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>139</v>
+        <v>359</v>
       </c>
       <c r="M70" s="7">
         <v>6</v>
@@ -5139,13 +5141,13 @@
         <v>4611</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>367</v>
+        <v>114</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5162,13 @@
         <v>1659</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="H71" s="7">
         <v>3</v>
@@ -5175,13 +5177,13 @@
         <v>2117</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="M71" s="7">
         <v>5</v>
@@ -5190,13 +5192,13 @@
         <v>3775</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5213,13 @@
         <v>852</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H72" s="7">
         <v>2</v>
@@ -5226,13 +5228,13 @@
         <v>1665</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M72" s="7">
         <v>3</v>
@@ -5241,13 +5243,13 @@
         <v>2517</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>383</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,7 +5270,7 @@
         <v>19</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="H73" s="7">
         <v>2</v>
@@ -5277,13 +5279,13 @@
         <v>1625</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>89</v>
+        <v>377</v>
       </c>
       <c r="M73" s="7">
         <v>2</v>
@@ -5292,13 +5294,13 @@
         <v>1625</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="P73" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>157</v>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,10 +5318,10 @@
         <v>92</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H74" s="7">
         <v>12</v>
@@ -5328,13 +5330,13 @@
         <v>7902</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="M74" s="7">
         <v>23</v>
@@ -5343,13 +5345,13 @@
         <v>16394</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>213</v>
+        <v>385</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,6 +5403,11 @@
       </c>
       <c r="Q75" s="7" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IQ2608_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IQ2608_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4174EAFC-571C-4175-8002-D54F1C7BABCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{518FCAA6-65BE-4136-9837-434ECAEF8253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A2299E28-117E-4E4C-A8C5-40E48B2DAEB3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC5DE15A-20F4-47F7-9B55-5BFF6EC7060A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="399">
   <si>
     <t>Menores según si utilizan camiseta, gorra, gafas de sol o sombrero para protegerse del sol / solo 2023 en 2023 (Tasa respuesta: 24,9%)</t>
   </si>
@@ -65,13 +65,13 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>86,22%</t>
   </si>
   <si>
-    <t>47,72%</t>
+    <t>38,39%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,16 +83,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>77,77%</t>
+    <t>77,42%</t>
   </si>
   <si>
     <t>67,2%</t>
   </si>
   <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
   </si>
   <si>
     <t>0%</t>
@@ -116,1087 +116,1120 @@
     <t>7,49%</t>
   </si>
   <si>
-    <t>36,07%</t>
+    <t>40,65%</t>
   </si>
   <si>
     <t>46,42%</t>
   </si>
   <si>
-    <t>87,63%</t>
+    <t>86,72%</t>
   </si>
   <si>
     <t>16,4%</t>
   </si>
   <si>
-    <t>48,75%</t>
+    <t>49,14%</t>
   </si>
   <si>
     <t>13,78%</t>
   </si>
   <si>
-    <t>52,28%</t>
+    <t>61,61%</t>
   </si>
   <si>
     <t>8,91%</t>
   </si>
   <si>
-    <t>46,93%</t>
+    <t>41,1%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>30,46%</t>
   </si>
   <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
   </si>
   <si>
     <t>29,83%</t>
   </si>
   <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
   </si>
   <si>
     <t>10,73%</t>
   </si>
   <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
   </si>
   <si>
     <t>21,22%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>3,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1611,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1305C3B8-29A8-41FA-9AE2-E1ECBBF92776}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F249B2D1-2FE1-4029-B6B4-ADB4612A3E31}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2538,7 +2571,7 @@
         <v>70</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2586,13 @@
         <v>1903</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -2568,13 +2601,13 @@
         <v>3559</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -2583,13 +2616,13 @@
         <v>5461</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,13 +2637,13 @@
         <v>3788</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -2619,13 +2652,13 @@
         <v>3262</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -2634,13 +2667,13 @@
         <v>7050</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,7 +2694,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2676,7 +2709,7 @@
         <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2691,7 +2724,7 @@
         <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,7 +2745,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2727,7 +2760,7 @@
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -2742,7 +2775,7 @@
         <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,7 +2796,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2778,7 +2811,7 @@
         <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2793,7 +2826,7 @@
         <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,7 +2847,7 @@
         <v>19</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2829,7 +2862,7 @@
         <v>19</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2844,7 +2877,7 @@
         <v>19</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,13 +2892,13 @@
         <v>1295</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2874,13 +2907,13 @@
         <v>1760</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2889,13 +2922,13 @@
         <v>3055</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,7 +2984,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -2963,13 +2996,13 @@
         <v>14695</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -2978,13 +3011,13 @@
         <v>10782</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M28" s="7">
         <v>41</v>
@@ -2993,13 +3026,13 @@
         <v>25477</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +3047,13 @@
         <v>4678</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -3029,13 +3062,13 @@
         <v>2593</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -3044,13 +3077,13 @@
         <v>7271</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3098,13 @@
         <v>15882</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -3080,13 +3113,13 @@
         <v>7348</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M30" s="7">
         <v>33</v>
@@ -3095,13 +3128,13 @@
         <v>23230</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3149,13 @@
         <v>13796</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -3131,13 +3164,13 @@
         <v>9745</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M31" s="7">
         <v>29</v>
@@ -3146,13 +3179,13 @@
         <v>23541</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3200,13 @@
         <v>6459</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -3182,13 +3215,13 @@
         <v>4245</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
@@ -3197,13 +3230,13 @@
         <v>10704</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3251,13 @@
         <v>4078</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="H33" s="7">
         <v>6</v>
@@ -3233,13 +3266,13 @@
         <v>4777</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M33" s="7">
         <v>12</v>
@@ -3248,13 +3281,13 @@
         <v>8855</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3302,13 @@
         <v>764</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3284,13 +3317,13 @@
         <v>778</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -3299,13 +3332,13 @@
         <v>1542</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,7 +3359,7 @@
         <v>19</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3341,7 +3374,7 @@
         <v>19</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3356,7 +3389,7 @@
         <v>19</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,7 +3410,7 @@
         <v>19</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3392,7 +3425,7 @@
         <v>19</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3407,7 +3440,7 @@
         <v>19</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,7 +3461,7 @@
         <v>19</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3443,7 +3476,7 @@
         <v>19</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3458,7 +3491,7 @@
         <v>19</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3506,13 @@
         <v>1071</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3494,7 +3527,7 @@
         <v>19</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -3503,13 +3536,13 @@
         <v>1071</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,7 +3598,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B40" s="5">
         <v>10</v>
@@ -3577,13 +3610,13 @@
         <v>7768</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H40" s="7">
         <v>15</v>
@@ -3592,13 +3625,13 @@
         <v>8882</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M40" s="7">
         <v>27</v>
@@ -3607,13 +3640,13 @@
         <v>16650</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3661,13 @@
         <v>388</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3649,7 +3682,7 @@
         <v>19</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -3658,13 +3691,13 @@
         <v>388</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3712,13 @@
         <v>7825</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -3694,13 +3727,13 @@
         <v>3569</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M42" s="7">
         <v>13</v>
@@ -3709,13 +3742,13 @@
         <v>11394</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,13 +3763,13 @@
         <v>6334</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H43" s="7">
         <v>7</v>
@@ -3745,13 +3778,13 @@
         <v>4021</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="M43" s="7">
         <v>16</v>
@@ -3760,13 +3793,13 @@
         <v>10354</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3814,13 @@
         <v>10296</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H44" s="7">
         <v>4</v>
@@ -3796,13 +3829,13 @@
         <v>2665</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M44" s="7">
         <v>19</v>
@@ -3811,13 +3844,13 @@
         <v>12960</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3865,13 @@
         <v>7614</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H45" s="7">
         <v>6</v>
@@ -3847,13 +3880,13 @@
         <v>3183</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M45" s="7">
         <v>15</v>
@@ -3862,13 +3895,13 @@
         <v>10797</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,7 +3922,7 @@
         <v>19</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -3898,13 +3931,13 @@
         <v>756</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3913,13 +3946,13 @@
         <v>756</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3967,13 @@
         <v>893</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -3949,13 +3982,13 @@
         <v>1575</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="M47" s="7">
         <v>3</v>
@@ -3964,13 +3997,13 @@
         <v>2469</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,7 +4024,7 @@
         <v>19</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H48" s="7">
         <v>2</v>
@@ -4000,13 +4033,13 @@
         <v>1665</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M48" s="7">
         <v>2</v>
@@ -4015,13 +4048,13 @@
         <v>1665</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,7 +4075,7 @@
         <v>19</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4057,7 +4090,7 @@
         <v>19</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -4072,7 +4105,7 @@
         <v>19</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4120,13 @@
         <v>734</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -4102,13 +4135,13 @@
         <v>2716</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M50" s="7">
         <v>5</v>
@@ -4117,13 +4150,13 @@
         <v>3450</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,7 +4212,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B52" s="5">
         <v>10</v>
@@ -4191,13 +4224,13 @@
         <v>13212</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H52" s="7">
         <v>16</v>
@@ -4206,13 +4239,13 @@
         <v>10863</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M52" s="7">
         <v>34</v>
@@ -4221,13 +4254,13 @@
         <v>24075</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4275,13 @@
         <v>2555</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>137</v>
+        <v>251</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
@@ -4257,13 +4290,13 @@
         <v>661</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M53" s="7">
         <v>4</v>
@@ -4272,13 +4305,13 @@
         <v>3216</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,28 +4326,28 @@
         <v>5564</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H54" s="7">
         <v>15</v>
       </c>
       <c r="I54" s="7">
-        <v>10500</v>
+        <v>10501</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M54" s="7">
         <v>24</v>
@@ -4323,13 +4356,13 @@
         <v>16065</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,13 +4377,13 @@
         <v>8016</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H55" s="7">
         <v>11</v>
@@ -4359,13 +4392,13 @@
         <v>7353</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M55" s="7">
         <v>23</v>
@@ -4374,13 +4407,13 @@
         <v>15369</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>267</v>
+        <v>138</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,13 +4428,13 @@
         <v>5242</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H56" s="7">
         <v>9</v>
@@ -4410,13 +4443,13 @@
         <v>5170</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M56" s="7">
         <v>16</v>
@@ -4425,13 +4458,13 @@
         <v>10412</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>276</v>
+        <v>114</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4479,13 @@
         <v>4820</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H57" s="7">
         <v>8</v>
@@ -4461,13 +4494,13 @@
         <v>5676</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M57" s="7">
         <v>14</v>
@@ -4476,13 +4509,13 @@
         <v>10496</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>286</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4530,13 @@
         <v>1483</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H58" s="7">
         <v>1</v>
@@ -4512,13 +4545,13 @@
         <v>830</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M58" s="7">
         <v>3</v>
@@ -4527,13 +4560,13 @@
         <v>2313</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>182</v>
+        <v>294</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>25</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,7 +4587,7 @@
         <v>19</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
@@ -4563,13 +4596,13 @@
         <v>541</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>294</v>
+        <v>145</v>
       </c>
       <c r="M59" s="7">
         <v>1</v>
@@ -4578,13 +4611,13 @@
         <v>541</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4632,13 @@
         <v>852</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4620,7 +4653,7 @@
         <v>19</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M60" s="7">
         <v>1</v>
@@ -4629,13 +4662,13 @@
         <v>852</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,7 +4689,7 @@
         <v>19</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H61" s="7">
         <v>2</v>
@@ -4665,13 +4698,13 @@
         <v>1625</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M61" s="7">
         <v>2</v>
@@ -4680,13 +4713,13 @@
         <v>1625</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4734,13 @@
         <v>5392</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="H62" s="7">
         <v>5</v>
@@ -4716,13 +4749,13 @@
         <v>3427</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>308</v>
+        <v>236</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M62" s="7">
         <v>11</v>
@@ -4731,13 +4764,13 @@
         <v>8819</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>185</v>
+        <v>312</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,7 +4797,7 @@
         <v>69</v>
       </c>
       <c r="I63" s="7">
-        <v>46646</v>
+        <v>46647</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>35</v>
@@ -4805,13 +4838,13 @@
         <v>48996</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H64" s="7">
         <v>65</v>
@@ -4820,13 +4853,13 @@
         <v>38904</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M64" s="7">
         <v>136</v>
@@ -4835,13 +4868,13 @@
         <v>87900</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>126</v>
+        <v>323</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4889,13 @@
         <v>10626</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H65" s="7">
         <v>8</v>
@@ -4871,13 +4904,13 @@
         <v>5154</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>116</v>
+        <v>327</v>
       </c>
       <c r="M65" s="7">
         <v>22</v>
@@ -4886,13 +4919,13 @@
         <v>15779</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>65</v>
+        <v>328</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>47</v>
+        <v>329</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4940,13 @@
         <v>34815</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>74</v>
+        <v>332</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="H66" s="7">
         <v>39</v>
@@ -4922,13 +4955,13 @@
         <v>26124</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="M66" s="7">
         <v>88</v>
@@ -4937,13 +4970,13 @@
         <v>60939</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4991,13 @@
         <v>32083</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H67" s="7">
         <v>34</v>
@@ -4973,13 +5006,13 @@
         <v>23327</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>115</v>
+        <v>343</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M67" s="7">
         <v>77</v>
@@ -4988,13 +5021,13 @@
         <v>55410</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +5042,13 @@
         <v>23899</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>341</v>
+        <v>52</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="H68" s="7">
         <v>28</v>
@@ -5024,13 +5057,13 @@
         <v>16282</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="M68" s="7">
         <v>61</v>
@@ -5039,13 +5072,13 @@
         <v>40181</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5093,13 @@
         <v>20300</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c r="H69" s="7">
         <v>28</v>
@@ -5075,13 +5108,13 @@
         <v>18307</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>204</v>
+        <v>361</v>
       </c>
       <c r="M69" s="7">
         <v>55</v>
@@ -5090,13 +5123,13 @@
         <v>38607</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>33</v>
+        <v>363</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>354</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5144,13 @@
         <v>2247</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>221</v>
+        <v>366</v>
       </c>
       <c r="H70" s="7">
         <v>3</v>
@@ -5126,13 +5159,13 @@
         <v>2364</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="M70" s="7">
         <v>6</v>
@@ -5141,13 +5174,13 @@
         <v>4611</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>114</v>
+        <v>370</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,13 +5195,13 @@
         <v>1659</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>363</v>
+        <v>217</v>
       </c>
       <c r="H71" s="7">
         <v>3</v>
@@ -5177,13 +5210,13 @@
         <v>2117</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="M71" s="7">
         <v>5</v>
@@ -5192,13 +5225,13 @@
         <v>3775</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5246,13 @@
         <v>852</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="H72" s="7">
         <v>2</v>
@@ -5228,13 +5261,13 @@
         <v>1665</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="M72" s="7">
         <v>3</v>
@@ -5243,13 +5276,13 @@
         <v>2517</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>217</v>
+        <v>385</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,7 +5303,7 @@
         <v>19</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="H73" s="7">
         <v>2</v>
@@ -5279,13 +5312,13 @@
         <v>1625</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="M73" s="7">
         <v>2</v>
@@ -5294,13 +5327,13 @@
         <v>1625</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="P73" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5348,13 @@
         <v>8492</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="H74" s="7">
         <v>12</v>
@@ -5330,13 +5363,13 @@
         <v>7902</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="M74" s="7">
         <v>23</v>
@@ -5345,13 +5378,13 @@
         <v>16394</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,7 +5440,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
